--- a/doc/大作业自评表.xlsx
+++ b/doc/大作业自评表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIM\助教工作\2025-2026程序设计基础\大作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CielErrance\Desktop\作业\大二上（re）\程设\大作业\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED8C9B-CB23-42AB-A633-501519CD5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C27674-8835-4220-A0F5-BD400EAB750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -24,12 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -54,6 +49,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年程序设计基础大作业自评表</t>
@@ -66,6 +62,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>姓名</t>
@@ -78,6 +75,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>学号</t>
@@ -90,6 +88,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>模块</t>
@@ -108,6 +107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>功能</t>
@@ -123,6 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分值</t>
@@ -177,9 +178,6 @@
   </si>
   <si>
     <t>暂停界面</t>
-  </si>
-  <si>
-    <t>按下ESC进入暂停界面，可以选择恢复游戏、重新开始、回到标题界面</t>
   </si>
   <si>
     <t>游戏结束画面</t>
@@ -298,6 +296,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -309,6 +308,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>背景音乐</t>
@@ -389,6 +389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>创意</t>
@@ -400,6 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>其它创意</t>
@@ -413,13 +415,17 @@
   </si>
   <si>
     <t>&lt;=25</t>
+  </si>
+  <si>
+    <t>按下ESC进入暂停界面，可以选择恢复游戏、重新开始、回到标题界面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +437,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -471,6 +478,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -478,6 +486,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -485,6 +494,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -492,10 +502,19 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -576,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,7 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -604,13 +623,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -622,10 +641,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,41 +677,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1004,37 +1002,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1045,7 +1043,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1056,43 +1054,41 @@
       <c r="G3" s="7"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="13"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="13"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
@@ -1117,10 +1113,10 @@
       <c r="I7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1141,10 +1137,10 @@
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
       <c r="B9" s="23" t="s">
         <v>18</v>
       </c>
@@ -1163,10 +1159,10 @@
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
       <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
@@ -1181,15 +1177,15 @@
       <c r="G10" s="26"/>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
       <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>25</v>
+      <c r="C11" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="D11" s="22">
         <v>2</v>
@@ -1199,15 +1195,15 @@
       <c r="G11" s="26"/>
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
       <c r="B12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="22">
         <v>2</v>
@@ -1217,127 +1213,127 @@
       <c r="G12" s="26"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="22">
         <v>2</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>32</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="29" t="s">
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="D14" s="22">
         <v>3</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="32"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:10" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="22">
         <v>3</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
       <c r="B16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="22">
         <v>3</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
       <c r="B17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="22">
         <v>3</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="22">
         <v>3</v>
@@ -1347,15 +1343,15 @@
       <c r="G18" s="26"/>
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
       <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="22">
         <v>3</v>
@@ -1366,13 +1362,13 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="22">
         <v>3</v>
@@ -1383,106 +1379,106 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="D21" s="22">
         <v>2</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="22">
         <v>2</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="37"/>
-    </row>
-    <row r="23" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D23" s="22">
         <v>2</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="20">
         <v>2</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="38"/>
-    </row>
-    <row r="25" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
       <c r="B25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="D25" s="20">
         <v>3</v>
@@ -1492,37 +1488,37 @@
       <c r="G25" s="26"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="38"/>
-    </row>
-    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
       <c r="B26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="D26" s="20">
         <v>3</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="38"/>
-    </row>
-    <row r="27" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="46"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
       <c r="B27" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="D27" s="20">
         <v>4</v>
@@ -1532,145 +1528,145 @@
       <c r="G27" s="26"/>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="38"/>
-    </row>
-    <row r="28" spans="1:10" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="46" t="s">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="D28" s="20">
         <v>3</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" ht="61.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="46"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="61.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="D29" s="20">
         <v>3</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="46"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
       <c r="B30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="D30" s="20">
         <v>3</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="47" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47" t="s">
+      <c r="G31" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>90</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="47"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="22"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="22"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="26"/>
@@ -1686,9 +1682,8 @@
       <c r="G37" s="26"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="33"/>
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
